--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -527,6 +527,9 @@
         <v xml:space="preserve">463_玉兰枝_magnolia flower
 white/purple_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -588,7 +591,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0115401591114910150</v>
+        <v>0115401591114910151</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -528,12 +528,92 @@
 white/purple_undefined_1bunch</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>343_南天竹带果_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>396_米花 白_rice flower white_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>490_米花 粉_rice flower pink_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>4</v>
+      </c>
+      <c r="C17" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>630_吸色康乃馨天蓝_tinted tiffany blue_undefined_20stems</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -591,7 +671,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0115401591114910151</v>
+        <v>0115401591114910151010201555201015100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -608,7 +608,7 @@
     </row>
     <row r="21">
       <c r="C21" t="str">
-        <v>630_吸色康乃馨天蓝_tinted tiffany blue_undefined_20stems</v>
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -610,6 +610,9 @@
       <c r="C21" t="str">
         <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -671,7 +674,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0115401591114910151010201555201015100</v>
+        <v>01154015911149101510102015552010151010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -614,9 +614,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>227_多头卡布奇诺_Cappuccino spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>6</v>
+      </c>
+      <c r="C30" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>326_红继木_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -674,7 +757,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01154015911149101510102015552010151010</v>
+        <v>01154015911149101510102015552010151010891012571010150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -696,6 +696,9 @@
       <c r="C31" t="str">
         <v>326_红继木_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -757,7 +760,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01154015911149101510102015552010151010891012571010150</v>
+        <v>011540159111491015101020155520101510108910125710101510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,9 +700,86 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>816_山里红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F35" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>614_康乃馨绿_green_undefined_20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>606_康乃馨橙光_orange_undefined_20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -760,7 +837,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011540159111491015101020155520101510108910125710101510</v>
+        <v>01154015911149101510102015552010151010891012571010151010103040515101050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -776,6 +776,9 @@
       <c r="A41" t="str">
         <v>7</v>
       </c>
+      <c r="C41" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -779,6 +779,9 @@
       <c r="C41" t="str">
         <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -840,7 +843,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01154015911149101510102015552010151010891012571010151010103040515101050</v>
+        <v>011540159111491015101020155520101510108910125710101510101030405151010515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -783,9 +783,92 @@
         <v>15</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>8</v>
+      </c>
+      <c r="C45" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -843,7 +926,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011540159111491015101020155520101510108910125710101510101030405151010515</v>
+        <v>011540159111491015101020155520101510108910125710101510101030405151010515101510151051010510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -866,9 +866,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F52" t="str">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L52"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -926,7 +934,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011540159111491015101020155520101510108910125710101510101030405151010515101510151051010510</v>
+        <v>01154015911149101510102015552010151010891012571010151010103040515101051510151015105101051015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -874,9 +874,95 @@
         <v>15</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>1</v>
+      </c>
+      <c r="C53" t="str">
+        <v>475_诺贝松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F54" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>2</v>
+      </c>
+      <c r="C56" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>447_黄金球_craspedia_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>3</v>
+      </c>
+      <c r="C58" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F60" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F61" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>79_福娃_undefined_Gerbera L._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L52"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L62"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -934,7 +1020,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01154015911149101510102015552010151010891012571010151010103040515101051510151015105101051015</v>
+        <v>01154015911149101510102015552010151010891012571010151010103040515101051510151015105101051015203130206012520200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -959,6 +959,9 @@
       <c r="C62" t="str">
         <v>79_福娃_undefined_Gerbera L._20stems</v>
       </c>
+      <c r="F62" t="str">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1020,7 +1023,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01154015911149101510102015552010151010891012571010151010103040515101051510151015105101051015203130206012520200</v>
+        <v>01154015911149101510102015552010151010891012571010151010103040515101051510151015105101051015203130206012520207</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -963,9 +963,93 @@
         <v>7</v>
       </c>
     </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>4</v>
+      </c>
+      <c r="C64" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F65" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>481_重瓣菟葵粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="C68" t="str" xml:space="preserve">
+        <v xml:space="preserve">386_菟葵绿粉 
+green_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>5</v>
+      </c>
+      <c r="C70" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>80_冰清玉洁_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F71" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L62"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L72"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1023,7 +1107,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01154015911149101510102015552010151010891012571010151010103040515101051510151015105101051015203130206012520207</v>
+        <v>0115401591114910151010201555201015101089101257101015101010304051510105151015101510510105101520313020601252020710203040552010150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -1046,6 +1046,9 @@
       <c r="C72" t="str">
         <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
       </c>
+      <c r="F72" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1107,7 +1110,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0115401591114910151010201555201015101089101257101015101010304051510105151015101510510105101520313020601252020710203040552010150</v>
+        <v>01154015911149101510102015552010151010891012571010151010103040515101051510151015105101051015203130206012520207102030405520101510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,9 +1050,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>6</v>
+      </c>
+      <c r="C74" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F79" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>7</v>
+      </c>
+      <c r="C80" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F80" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>658_大丽花 粉桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F81" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L72"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L82"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1110,7 +1193,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01154015911149101510102015552010151010891012571010151010103040515101051510151015105101051015203130206012520207102030405520101510</v>
+        <v>01154015911149101510102015552010151010891012571010151010103040515101051510151015105101051015203130206012520207102030405520101510105101510710550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -1132,6 +1132,9 @@
       <c r="C82" t="str">
         <v>586_洋牡丹白_undefined_undefined_1bunch</v>
       </c>
+      <c r="F82" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1193,7 +1196,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01154015911149101510102015552010151010891012571010151010103040515101051510151015105101051015203130206012520207102030405520101510105101510710550</v>
+        <v>011540159111491015101020155520101510108910125710101510101030405151010515101510151051010510152031302060125202071020304055201015101051015107105510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -1133,7 +1133,7 @@
         <v>586_洋牡丹白_undefined_undefined_1bunch</v>
       </c>
       <c r="F82" t="str">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1196,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011540159111491015101020155520101510108910125710101510101030405151010515101510151051010510152031302060125202071020304055201015101051015107105510</v>
+        <v>01154015911149101510102015552010151010891012571010151010103040515101051510151015105101051015203130206012520207102030405520101510105101510710552</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1133,12 +1133,20 @@
         <v>586_洋牡丹白_undefined_undefined_1bunch</v>
       </c>
       <c r="F82" t="str">
-        <v>2</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F83" t="str">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L82"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L83"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1196,7 +1204,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01154015911149101510102015552010151010891012571010151010103040515101051510151015105101051015203130206012520207102030405520101510105101510710552</v>
+        <v>01154015911149101510102015552010151010891012571010151010103040515101051510151015105101051015203130206012520207102030405520101510105101510710552515</v>
       </c>
     </row>
   </sheetData>
